--- a/Shiny_App/INPUT/DATOS/Diagnostico.xlsx
+++ b/Shiny_App/INPUT/DATOS/Diagnostico.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">14.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Cáncer de pulmón/pulmonar</t>
+    <t xml:space="preserve">Cáncer de pulmón</t>
   </si>
   <si>
     <t xml:space="preserve">Carcinoma pulmonar no microcítico</t>
@@ -376,13 +376,13 @@
   <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
